--- a/Ergebnis Verstärkungsbandbreite.xlsx
+++ b/Ergebnis Verstärkungsbandbreite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Verstärkungsbandbreite</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Abstand in GHz</t>
+  </si>
+  <si>
+    <t>Fehler/pixel</t>
+  </si>
+  <si>
+    <t>Fehler/ms</t>
+  </si>
+  <si>
+    <t>Fehler in GHz</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,16 +413,17 @@
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -433,13 +443,22 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>731</v>
       </c>
@@ -460,15 +479,26 @@
         <v>187</v>
       </c>
       <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3">
         <f>F3*C3</f>
         <v>0.51162790697674421</v>
       </c>
-      <c r="H3">
-        <f>G3*$B$10/$A$10</f>
+      <c r="I3">
+        <f>H3*$B$10/$A$10</f>
         <v>0.63755845251812404</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>C3*G3</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="K3">
+        <f>J3*$B$10/$A$10</f>
+        <v>0.1159197186396589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>731</v>
       </c>
@@ -489,20 +519,31 @@
         <v>277</v>
       </c>
       <c r="G4">
+        <v>34</v>
+      </c>
+      <c r="H4">
         <f>F4*C4</f>
         <v>0.75786593707250338</v>
       </c>
-      <c r="H4">
-        <f>G4*$B$10/$A$10</f>
+      <c r="I4">
+        <f>H4*$B$10/$A$10</f>
         <v>0.94440476656427985</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>C4*G4</f>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="K4">
+        <f>J4*$B$10/$A$10</f>
+        <v>0.1159197186396589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -510,7 +551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8.0248000000000008</v>
       </c>
